--- a/artfynd/A 9409-2025 artfynd.xlsx
+++ b/artfynd/A 9409-2025 artfynd.xlsx
@@ -3836,7 +3836,7 @@
         <v>123398368</v>
       </c>
       <c r="B29" t="n">
-        <v>57060</v>
+        <v>57064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/artfynd/A 9409-2025 artfynd.xlsx
+++ b/artfynd/A 9409-2025 artfynd.xlsx
@@ -5778,12 +5778,7 @@
         <v>123635839</v>
       </c>
       <c r="B45" t="n">
-        <v>57666</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>58043</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
